--- a/API_AccountCreation_DDT_Tests/src/test/resources/input.xlsx
+++ b/API_AccountCreation_DDT_Tests/src/test/resources/input.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14480" windowHeight="6600" activeTab="2"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Singup" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Singup-test" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="List_accounts" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Test" sheetId="4" r:id="rId7"/>
+    <sheet name="Singup" sheetId="1" r:id="rId1"/>
+    <sheet name="Singup-test" sheetId="2" r:id="rId2"/>
+    <sheet name="List_accounts" sheetId="3" r:id="rId3"/>
+    <sheet name="Test" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="NamedRange1">'Singup-test'!$A$2:$A$4</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mh77iUp7WWC4SBlFJ5WvH4BedScCQ=="/>
@@ -21,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="135">
   <si>
     <t>mail</t>
   </si>
@@ -140,9 +149,6 @@
     <t>d3ltagamm@</t>
   </si>
   <si>
-    <t>tzxcbnmasdfg@gmail.com</t>
-  </si>
-  <si>
     <t>!Lov3MyPiano</t>
   </si>
   <si>
@@ -191,9 +197,6 @@
     <t>Antofagasta</t>
   </si>
   <si>
-    <t>tмакарена@walla.net</t>
-  </si>
-  <si>
     <t>011 64 3 477 4000</t>
   </si>
   <si>
@@ -209,9 +212,6 @@
     <t>Brussels</t>
   </si>
   <si>
-    <t xml:space="preserve">“rmailд”@example.com </t>
-  </si>
-  <si>
     <t>email@123.123.123.123.edu</t>
   </si>
   <si>
@@ -242,9 +242,6 @@
     <t>Prague</t>
   </si>
   <si>
-    <t>“emailд”@example.com</t>
-  </si>
-  <si>
     <t>Europe/Berlin</t>
   </si>
   <si>
@@ -284,9 +281,6 @@
     <t>Oslo</t>
   </si>
   <si>
-    <t>zxcbnmasdfg@gmail.com</t>
-  </si>
-  <si>
     <t>Europe/Paris</t>
   </si>
   <si>
@@ -323,9 +317,6 @@
     <t>Budapest</t>
   </si>
   <si>
-    <t>макарена@walla.net</t>
-  </si>
-  <si>
     <t>00 64 3 477 4000</t>
   </si>
   <si>
@@ -341,9 +332,6 @@
     <t>Rome</t>
   </si>
   <si>
-    <t xml:space="preserve">“emailд”@example.com </t>
-  </si>
-  <si>
     <t>Asia/Tokyo</t>
   </si>
   <si>
@@ -386,9 +374,6 @@
     <t>_msdv@gmail.ua</t>
   </si>
   <si>
-    <t>ф</t>
-  </si>
-  <si>
     <t>llanfairpwllgw@msdv.info</t>
   </si>
   <si>
@@ -401,15 +386,9 @@
     <t>1_1@gmail.com</t>
   </si>
   <si>
-    <t>ש</t>
-  </si>
-  <si>
     <t>8@zzzz.ru</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>America/Mexico</t>
   </si>
   <si>
@@ -420,93 +399,135 @@
   </si>
   <si>
     <t>0011 64 3 477 4000</t>
+  </si>
+  <si>
+    <t>“email”@example.com</t>
+  </si>
+  <si>
+    <t>zxcvbnmasdfghjklqwertyuiop@walla.net</t>
+  </si>
+  <si>
+    <t>zxcbnmasdfg@gmaail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“rmail”@example.com </t>
+  </si>
+  <si>
+    <t>zxcbnmasdfg@ggmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“email”@example.com </t>
+  </si>
+  <si>
+    <t>zxcvbn,mlkjhgfdsaqwrtyuiiookjgft@walla.net</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>100 111</t>
+  </si>
+  <si>
+    <t>1000 3</t>
+  </si>
+  <si>
+    <t>tzxcbnmasdfg@gmail.comm</t>
+  </si>
+  <si>
+    <t>t@walla.net</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="00"/>
     <numFmt numFmtId="165" formatCode="00000"/>
     <numFmt numFmtId="166" formatCode="00000000"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF0B161C"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF242729"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Monospace"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF222222"/>
       <name val="Sans-serif"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF222222"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -515,7 +536,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -537,134 +558,117 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="12" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="היפר-קישור" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -854,28 +858,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="46.0"/>
-    <col customWidth="1" min="2" max="2" width="19.13"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="20.75"/>
-    <col customWidth="1" min="5" max="5" width="11.75"/>
-    <col customWidth="1" min="6" max="6" width="14.38"/>
+    <col min="1" max="1" width="46" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="14.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.75" customHeight="1">
+    <row r="1" spans="1:6" ht="21.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -895,15 +901,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1">
+    <row r="2" spans="1:6" ht="13.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="5">
-        <v>5.47613154E8</v>
+        <v>547613154</v>
       </c>
       <c r="C2" s="7">
-        <v>5.47613154E8</v>
+        <v>547613154</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>25</v>
@@ -915,7 +921,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1">
+    <row r="3" spans="1:6" ht="13.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
@@ -926,38 +932,38 @@
         <v>33</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="14" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>51</v>
-      </c>
       <c r="D4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" ht="13.5" customHeight="1">
+    </row>
+    <row r="5" spans="1:6" ht="13.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
@@ -966,378 +972,382 @@
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="10" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="10" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="20">
-        <v>1.0</v>
+        <v>13453453</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A8" s="31" t="s">
+        <v>123</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A9" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="20">
-        <v>10.0</v>
+        <v>1000000000000</v>
       </c>
       <c r="D9" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A10" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="20">
-        <v>99.0</v>
+        <v>999999999</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" ht="13.5" customHeight="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="20">
-        <v>100.0</v>
+      <c r="C11" s="20" t="s">
+        <v>131</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" ht="13.5" customHeight="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.5" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="20">
-        <v>1000.0</v>
+      <c r="C12" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" ht="13.5" customHeight="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="20">
-        <v>10000.0</v>
+        <v>10000</v>
       </c>
       <c r="D13" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A14" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="11" t="s">
-        <v>103</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" ht="13.5" customHeight="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" ht="13.5" customHeight="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="13.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A17" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="27" t="s">
+      <c r="E17" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A19" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="29" t="s">
+      <c r="F19" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A20" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="15">
+        <v>972547613154</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A21" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="17">
+        <v>123</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="18" t="s">
+      <c r="E21" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A22" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="11" t="s">
+      <c r="C22" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" ht="13.5" customHeight="1">
-      <c r="A20" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="15">
-        <v>9.72547613154E11</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" ht="13.5" customHeight="1">
-      <c r="A21" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="17">
-        <v>123.0</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" ht="13.5" customHeight="1">
-      <c r="A22" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>132</v>
-      </c>
       <c r="D22" s="14" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A8" r:id="rId1"/>
+    <hyperlink ref="A22" r:id="rId2"/>
+    <hyperlink ref="A17" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="27.75"/>
-    <col customWidth="1" min="2" max="2" width="24.63"/>
-    <col customWidth="1" min="3" max="3" width="19.38"/>
-    <col customWidth="1" min="4" max="6" width="16.75"/>
+    <col min="1" max="1" width="27.75" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.4140625" customWidth="1"/>
+    <col min="4" max="6" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.75" customHeight="1">
+    <row r="1" spans="1:6" ht="21.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1357,7 +1367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1">
+    <row r="2" spans="1:6" ht="13.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -1368,56 +1378,56 @@
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>62</v>
+    </row>
+    <row r="3" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A3" s="31" t="s">
+        <v>126</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="8" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="20">
-        <v>1.0</v>
+        <v>1234567</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" ht="13.5" customHeight="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="13.5" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
@@ -1425,318 +1435,326 @@
         <v>9</v>
       </c>
       <c r="C5" s="21">
-        <v>9.0</v>
+        <v>9999</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="15">
+        <v>1234</v>
+      </c>
+      <c r="C6" s="20">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="E6" s="10" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="F6" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="15">
-        <v>123.0</v>
-      </c>
-      <c r="C6" s="20">
-        <v>10.0</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" ht="13.5" customHeight="1">
+    </row>
+    <row r="7" spans="1:6" ht="13.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="20">
-        <v>99.0</v>
+        <v>9999</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A8" s="31" t="s">
+        <v>127</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="20">
-        <v>100.0</v>
+      <c r="C8" s="20" t="s">
+        <v>130</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" ht="13.5" customHeight="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="20">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" ht="13.5" customHeight="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="20">
-        <v>10000.0</v>
+        <v>10000</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" ht="13.5" customHeight="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A12" s="31" t="s">
+        <v>128</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" ht="13.5" customHeight="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" ht="13.5" customHeight="1">
+    <row r="14" spans="1:6" ht="13.5" customHeight="1">
       <c r="A14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="20">
+        <v>10001</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="27" t="s">
+      <c r="E16" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" s="3" t="s">
+      <c r="F16" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="15">
+        <v>972547613154</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A18" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="29" t="s">
+      <c r="B18" s="17">
+        <v>123456</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" s="18" t="s">
+      <c r="E18" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="3" t="s">
+      <c r="C19" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B17" s="15">
-        <v>9.72547613154E11</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" s="17">
-        <v>123.0</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>130</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A8" r:id="rId2"/>
+    <hyperlink ref="A12" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="27.88"/>
-    <col customWidth="1" min="2" max="2" width="22.38"/>
+    <col min="1" max="1" width="27.9140625" customWidth="1"/>
+    <col min="2" max="2" width="22.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1744,7 +1762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1752,7 +1770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" ht="15" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1760,7 +1778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" ht="15" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1768,7 +1786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" ht="15" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1776,7 +1794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" ht="15" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1784,7 +1802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" ht="15" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -1792,7 +1810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" ht="15" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1800,7 +1818,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" ht="15" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
@@ -1808,7 +1826,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" ht="15" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -1816,7 +1834,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" ht="15" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>29</v>
       </c>
@@ -1824,7 +1842,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" ht="15" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
@@ -1832,7 +1850,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" ht="15" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1840,74 +1858,79 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:2" ht="15" customHeight="1">
+      <c r="A14" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="6" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="15" customHeight="1">
+      <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="B15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="6" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="15" customHeight="1">
+      <c r="A16" s="11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="11" t="s">
+      <c r="B16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="6" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="15" customHeight="1">
+      <c r="A17" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="13" t="s">
-        <v>45</v>
-      </c>
       <c r="B17" s="15">
-        <v>9.72547613154E11</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>972547613154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="17">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>56</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" customHeight="1">
+      <c r="A19" s="31" t="s">
+        <v>134</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink ref="A14" r:id="rId1"/>
+    <hyperlink ref="A19" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.38"/>
-    <col customWidth="1" min="4" max="4" width="16.88"/>
+    <col min="1" max="1" width="25.4140625" customWidth="1"/>
+    <col min="4" max="4" width="16.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1927,15 +1950,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B2" s="15">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>25</v>
@@ -1947,15 +1970,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" ht="15" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B3" s="15">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>25</v>
@@ -1967,7 +1990,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="15" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="15"/>
       <c r="C4" s="28"/>
@@ -1976,6 +1999,6 @@
       <c r="F4" s="10"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/API_AccountCreation_DDT_Tests/src/test/resources/input.xlsx
+++ b/API_AccountCreation_DDT_Tests/src/test/resources/input.xlsx
@@ -41,7 +41,7 @@
     <t>City</t>
   </si>
   <si>
-    <t>firstname.lastname.firstname@gmail.com</t>
+    <t>firstname.lastname.firstname@mail.com</t>
   </si>
   <si>
     <t>Asia/Jerusalem</t>
@@ -566,14 +566,16 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -582,6 +584,7 @@
     </xf>
     <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
@@ -913,13 +916,13 @@
       </c>
     </row>
     <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -933,13 +936,13 @@
       </c>
     </row>
     <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -953,13 +956,13 @@
       </c>
     </row>
     <row r="5" ht="13.5" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -973,13 +976,13 @@
       </c>
     </row>
     <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -988,18 +991,18 @@
       <c r="E6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="9">
         <v>1.3453453E7</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1013,34 +1016,34 @@
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="6" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="9">
         <v>1.0E12</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="15" t="s">
         <v>46</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -1051,13 +1054,13 @@
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="9">
         <v>9.99999999E8</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -1071,13 +1074,13 @@
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>56</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -1091,13 +1094,13 @@
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>62</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -1106,18 +1109,18 @@
       <c r="E12" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="9">
         <v>10000.0</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -1126,18 +1129,18 @@
       <c r="E13" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -1151,13 +1154,13 @@
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="19" t="s">
         <v>79</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -1171,13 +1174,13 @@
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="19" t="s">
         <v>85</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -1191,13 +1194,13 @@
       </c>
     </row>
     <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="21" t="s">
         <v>88</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -1211,13 +1214,13 @@
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="22" t="s">
         <v>91</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -1231,13 +1234,13 @@
       </c>
     </row>
     <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="21" t="s">
         <v>88</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -1251,13 +1254,13 @@
       </c>
     </row>
     <row r="20" ht="13.5" customHeight="1">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="8">
         <v>9.72547613154E11</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -1266,36 +1269,36 @@
       <c r="E20" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" ht="13.5" customHeight="1">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="24">
         <v>123.0</v>
       </c>
-      <c r="C21" s="24"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="14" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="22" ht="13.5" customHeight="1">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="19" t="s">
         <v>101</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -1304,7 +1307,7 @@
       <c r="E22" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="14" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1359,13 +1362,13 @@
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1379,13 +1382,13 @@
       </c>
     </row>
     <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -1394,18 +1397,18 @@
       <c r="E3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <v>1234567.0</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -1419,13 +1422,13 @@
       </c>
     </row>
     <row r="5" ht="13.5" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="26">
         <v>9999.0</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -1434,21 +1437,21 @@
       <c r="E5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="8">
         <v>1234.0</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="9">
         <v>1000.0</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>46</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -1459,13 +1462,13 @@
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="9">
         <v>9999.0</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -1479,13 +1482,13 @@
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>106</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -1499,13 +1502,13 @@
       </c>
     </row>
     <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="9">
         <v>1000.0</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -1514,18 +1517,18 @@
       <c r="E9" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="9">
         <v>10000.0</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -1534,18 +1537,18 @@
       <c r="E10" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -1559,13 +1562,13 @@
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="19" t="s">
         <v>79</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -1579,13 +1582,13 @@
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="19" t="s">
         <v>85</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -1599,13 +1602,13 @@
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="21" t="s">
         <v>88</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -1619,13 +1622,13 @@
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="22" t="s">
         <v>91</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -1639,13 +1642,13 @@
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="9">
         <v>10001.0</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -1659,13 +1662,13 @@
       </c>
     </row>
     <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="8">
         <v>9.72547613154E11</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="19" t="s">
         <v>79</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -1674,18 +1677,18 @@
       <c r="E17" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="24">
         <v>123456.0</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="19" t="s">
         <v>85</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -1694,18 +1697,18 @@
       <c r="E18" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="14" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="19" t="s">
         <v>101</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -1714,7 +1717,7 @@
       <c r="E19" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="14" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1755,146 +1758,146 @@
       </c>
     </row>
     <row r="2" ht="15.0" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" ht="15.0" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" ht="15.0" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" ht="15.0" customHeight="1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" ht="15.0" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" ht="15.0" customHeight="1">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="16" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" ht="15.0" customHeight="1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="13" ht="15.0" customHeight="1">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14" ht="15.0" customHeight="1">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="15" ht="15.0" customHeight="1">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="16" ht="15.0" customHeight="1">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="17" ht="15.0" customHeight="1">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="8">
         <v>9.72547613154E11</v>
       </c>
     </row>
     <row r="18" ht="15.0" customHeight="1">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="24">
         <v>123.0</v>
       </c>
     </row>
     <row r="19" ht="15.0" customHeight="1">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1946,13 +1949,13 @@
       </c>
     </row>
     <row r="2" ht="15.0" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="8">
         <v>123.0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>134</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1966,13 +1969,13 @@
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="8">
         <v>123.0</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>134</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -1986,9 +1989,9 @@
       </c>
     </row>
     <row r="4" ht="15.0" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="26"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>

--- a/API_AccountCreation_DDT_Tests/src/test/resources/input.xlsx
+++ b/API_AccountCreation_DDT_Tests/src/test/resources/input.xlsx
@@ -125,7 +125,7 @@
     <t>Edmonton</t>
   </si>
   <si>
-    <t>email@[123.123.123.123]</t>
+    <t>email@123.123.123.123</t>
   </si>
   <si>
     <t>sn00pdoggyd0G</t>
@@ -996,7 +996,7 @@
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="8" t="s">
